--- a/Output_Files/20240826_DischargeSlope_FunctionalNo.xlsx
+++ b/Output_Files/20240826_DischargeSlope_FunctionalNo.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,47 +620,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LOC_2019</t>
+          <t>LOC_2018</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2019-05-29</t>
+          <t>2018-05-08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2019-06-15</t>
+          <t>2018-05-21</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>372.92</t>
+          <t>282.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>750.27</t>
+          <t>449.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.975045922760184</t>
+          <t>0.99792088406833</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.98608821990422e-14</t>
+          <t>1.823776414708e-17</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.000280922247066607</t>
+          <t>0.00015377009564513</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-437664.837317899</t>
+          <t>-234335.931116353</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -672,47 +672,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LOC_2020</t>
+          <t>LOC_2019</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>2019-05-29</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2019-06-15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>122.52</t>
+          <t>372.92</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>269.53</t>
+          <t>750.27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.93117473095315</t>
+          <t>0.975045922760184</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4.01221994566801e-10</t>
+          <t>2.98608821990422e-14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.000101034574709482</t>
+          <t>0.000280922247066607</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-160403.214036919</t>
+          <t>-437664.837317899</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -724,47 +724,47 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LOC_2021</t>
+          <t>LOC_2020</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>240.54</t>
+          <t>122.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>637.14</t>
+          <t>269.53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.951930745846453</t>
+          <t>0.93117473095315</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.69204599345519e-11</t>
+          <t>4.01221994566801e-10</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.000285817220406619</t>
+          <t>0.000101034574709482</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-463372.992005619</t>
+          <t>-160403.214036919</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -776,47 +776,47 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LOC_2022</t>
+          <t>LOC_2021</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>169.53</t>
+          <t>240.54</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>301.71</t>
+          <t>637.14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.956203918446866</t>
+          <t>0.951930745846453</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.62269624567406e-09</t>
+          <t>2.69204599345519e-11</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.000100557336182362</t>
+          <t>0.000285817220406619</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-166018.705539419</t>
+          <t>-463372.992005619</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -828,50 +828,102 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LOC_2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2022-05-17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2022-05-30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>169.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>301.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.956203918446866</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.62269624567406e-09</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.000100557336182362</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-166018.705539419</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>functional_ice_off_to_no_ice</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>LOC_2023</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>2023-05-16</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>2023-05-29</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>180.64</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>404.04</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>0.993673732317639</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>1.45003403979494e-14</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>0.000198288054538126</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>-333785.626529424</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>functional_ice_off_to_no_ice</t>
         </is>
